--- a/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F591208-CBDA-4B6B-8334-213403C0EB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7544C06C-0AF9-43B5-9B5D-F5CAA8684AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FAA0187-2586-4FAB-8408-48F7E02D3F91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A91EDBE8-4696-46CB-8AE2-91E9971BC07B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,55%</t>
   </si>
   <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>4,98%</t>
@@ -146,7 +146,7 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>6,99%</t>
@@ -155,10 +155,10 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>95,92%</t>
@@ -167,7 +167,7 @@
     <t>95,02%</t>
   </si>
   <si>
-    <t>96,64%</t>
+    <t>96,7%</t>
   </si>
   <si>
     <t>93,94%</t>
@@ -176,16 +176,16 @@
     <t>93,01%</t>
   </si>
   <si>
-    <t>95,1%</t>
+    <t>95,0%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816E9FE7-6319-4300-B5BB-C687EF977E8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75385FC6-189A-4E11-A856-35556833F159}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7544C06C-0AF9-43B5-9B5D-F5CAA8684AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3E632F-F234-41D6-89D0-E0DB4BFEED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A91EDBE8-4696-46CB-8AE2-91E9971BC07B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF786F53-A275-4CB1-9D04-5ABD83110647}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75385FC6-189A-4E11-A856-35556833F159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14CCE2F-0B9F-4B5C-8594-DC485A0A03AD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3E632F-F234-41D6-89D0-E0DB4BFEED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D368408E-BEAC-40CA-85B8-D06DA2EC053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF786F53-A275-4CB1-9D04-5ABD83110647}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0507EA43-7728-454F-BF8E-BE8481ACB60B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>15,05%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,55%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>84,95%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>4,98%</t>
@@ -146,7 +146,7 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>5,0%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>6,99%</t>
@@ -155,10 +155,10 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>95,92%</t>
@@ -167,7 +167,7 @@
     <t>95,02%</t>
   </si>
   <si>
-    <t>96,7%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>93,94%</t>
@@ -176,16 +176,16 @@
     <t>93,01%</t>
   </si>
   <si>
-    <t>95,0%</t>
+    <t>95,1%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14CCE2F-0B9F-4B5C-8594-DC485A0A03AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66776010-B578-4D9F-9522-B6C7365479DC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D368408E-BEAC-40CA-85B8-D06DA2EC053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44920C82-7885-436F-8D53-6D07E21B0362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0507EA43-7728-454F-BF8E-BE8481ACB60B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EABF3B5-2D4D-4A3D-8E46-56DCCDA10D05}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,58 +71,58 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>16,71%</t>
+    <t>16,63%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>86,44%</t>
@@ -134,73 +134,73 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>2,76%</t>
@@ -209,25 +209,25 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>94,76%</t>
@@ -236,67 +236,67 @@
     <t>97,24%</t>
   </si>
   <si>
-    <t>96,85%</t>
+    <t>96,87%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66776010-B578-4D9F-9522-B6C7365479DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8804D83B-6A63-4F58-AAA7-B5B79013C114}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>56376</v>
+        <v>53547</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>285</v>
       </c>
       <c r="I4" s="7">
-        <v>150230</v>
+        <v>136293</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>371</v>
       </c>
       <c r="N4" s="7">
-        <v>206607</v>
+        <v>189841</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>603</v>
       </c>
       <c r="D5" s="7">
-        <v>483143</v>
+        <v>459433</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>1141</v>
       </c>
       <c r="I5" s="7">
-        <v>682961</v>
+        <v>616875</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1744</v>
       </c>
       <c r="N5" s="7">
-        <v>1166103</v>
+        <v>1076308</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>539519</v>
+        <v>512980</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1372710</v>
+        <v>1266149</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>104</v>
       </c>
       <c r="D7" s="7">
-        <v>88121</v>
+        <v>84054</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>229</v>
       </c>
       <c r="I7" s="7">
-        <v>136260</v>
+        <v>125479</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>333</v>
       </c>
       <c r="N7" s="7">
-        <v>224382</v>
+        <v>209533</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1887</v>
       </c>
       <c r="D8" s="7">
-        <v>2073123</v>
+        <v>2205554</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2690</v>
       </c>
       <c r="I8" s="7">
-        <v>2111817</v>
+        <v>2110997</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>4577</v>
       </c>
       <c r="N8" s="7">
-        <v>4184940</v>
+        <v>4316551</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2161244</v>
+        <v>2289608</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2919</v>
       </c>
       <c r="I9" s="7">
-        <v>2248077</v>
+        <v>2236476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4910</v>
       </c>
       <c r="N9" s="7">
-        <v>4409322</v>
+        <v>4526084</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>15829</v>
+        <v>15127</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>27776</v>
+        <v>25722</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>43605</v>
+        <v>40848</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>662</v>
       </c>
       <c r="D11" s="7">
-        <v>656429</v>
+        <v>630778</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>956</v>
       </c>
       <c r="I11" s="7">
-        <v>685792</v>
+        <v>634422</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1618</v>
       </c>
       <c r="N11" s="7">
-        <v>1342221</v>
+        <v>1265201</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672258</v>
+        <v>645905</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>713568</v>
+        <v>660144</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1385826</v>
+        <v>1306049</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>208</v>
       </c>
       <c r="D13" s="7">
-        <v>160327</v>
+        <v>152728</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>560</v>
       </c>
       <c r="I13" s="7">
-        <v>314267</v>
+        <v>287494</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>768</v>
       </c>
       <c r="N13" s="7">
-        <v>474594</v>
+        <v>440222</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>3152</v>
       </c>
       <c r="D14" s="7">
-        <v>3212695</v>
+        <v>3295766</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>4787</v>
       </c>
       <c r="I14" s="7">
-        <v>3480569</v>
+        <v>3362294</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>7939</v>
       </c>
       <c r="N14" s="7">
-        <v>6693264</v>
+        <v>6658060</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3360</v>
       </c>
       <c r="D15" s="7">
-        <v>3373022</v>
+        <v>3448494</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794836</v>
+        <v>3649788</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8707</v>
       </c>
       <c r="N15" s="7">
-        <v>7167858</v>
+        <v>7098282</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
